--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Rhbdl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,185 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1533166666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.45995</v>
+      </c>
+      <c r="I2">
+        <v>0.1117088182569538</v>
+      </c>
+      <c r="J2">
+        <v>0.1117088182569538</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1.825757333333333</v>
+      </c>
+      <c r="N2">
+        <v>5.477272</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.2799190284888889</v>
+      </c>
+      <c r="R2">
+        <v>2.5192712564</v>
+      </c>
+      <c r="S2">
+        <v>0.1117088182569538</v>
+      </c>
+      <c r="T2">
+        <v>0.1117088182569538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.9559960000000002</v>
+      </c>
+      <c r="H3">
+        <v>2.867988</v>
+      </c>
+      <c r="I3">
+        <v>0.6965529954454279</v>
+      </c>
+      <c r="J3">
+        <v>0.6965529954454278</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.825757333333333</v>
+      </c>
+      <c r="N3">
+        <v>5.477272</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.745416707637334</v>
+      </c>
+      <c r="R3">
+        <v>15.708750368736</v>
+      </c>
+      <c r="S3">
+        <v>0.6965529954454279</v>
+      </c>
+      <c r="T3">
+        <v>0.6965529954454278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.9435564282554409</v>
-      </c>
-      <c r="H2">
-        <v>0.9435564282554409</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1.75645819587331</v>
-      </c>
-      <c r="N2">
-        <v>1.75645819587331</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1.657317421678216</v>
-      </c>
-      <c r="R2">
-        <v>1.657317421678216</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2631543333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.789463</v>
+      </c>
+      <c r="I4">
+        <v>0.1917381862976183</v>
+      </c>
+      <c r="J4">
+        <v>0.1917381862976183</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.825757333333333</v>
+      </c>
+      <c r="N4">
+        <v>5.477272</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.4804559538817778</v>
+      </c>
+      <c r="R4">
+        <v>4.324103584936</v>
+      </c>
+      <c r="S4">
+        <v>0.1917381862976183</v>
+      </c>
+      <c r="T4">
+        <v>0.1917381862976183</v>
       </c>
     </row>
   </sheetData>
